--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="4440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,14 +75,6 @@
   </si>
   <si>
     <t>pay_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,6 +117,10 @@
   </si>
   <si>
     <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +480,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -498,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -513,36 +509,33 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>50000</v>
@@ -551,20 +544,17 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" t="s">
-        <v>16</v>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余额购买贴心计划成功</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额购买债转产品成功</t>
     <rPh sb="0" eb="1">
       <t>yu</t>
     </rPh>
@@ -97,30 +121,6 @@
     <rPh sb="8" eb="9">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -526,16 +526,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>50000</v>
@@ -544,17 +544,17 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
+    <workbookView xWindow="-120" yWindow="-450" windowWidth="15585" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cardno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
   </si>
   <si>
     <t>${DebtBatchUtils.getDebtId()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,6 +113,10 @@
     <rPh sb="8" eb="9">
       <t>cheng g</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -494,19 +490,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -515,46 +511,40 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-450" windowWidth="15585" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,6 +113,10 @@
   </si>
   <si>
     <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -522,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -534,17 +534,17 @@
         <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,19 +481,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,28 +504,31 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -528,22 +539,25 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,6 +121,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtBatchUtils.getFinancePlan()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -533,13 +533,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -548,17 +548,17 @@
         <v>50000</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -11,7 +11,6 @@
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +124,30 @@
   </si>
   <si>
     <t>${DebtBatchUtils.getFinancePlan()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-购买精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用余额——购买成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,13 +507,13 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -498,33 +521,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -532,32 +564,41 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>50000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByBalanceSuccessful.xlsx
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checkCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +144,10 @@
   </si>
   <si>
     <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -565,19 +565,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -589,13 +589,13 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
